--- a/task6/results.xlsx
+++ b/task6/results.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="results" localSheetId="0">Лист1!$A$1:$C$101</definedName>
+    <definedName name="results2" localSheetId="1">Лист2!$A$1:$C$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,11 +39,20 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="results2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="D:\Projects\A-DS\task6\results2.csv" thousands=" " comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>a</t>
   </si>
@@ -1360,7 +1371,1494 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dependence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> collision number on used space of hashtable</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PJW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2953</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2942</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2763</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3477</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3670</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3802</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4392</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4973</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5107</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6235</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5396</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6564</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7777</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6610</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8054</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7521</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8244</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9690</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7712</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10185</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11888</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10345</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12478</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14824</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12942</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13497</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15015</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15479</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18366</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17934</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19620</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18217</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20252</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23185</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27237</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21804</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29199</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF8D-49DB-BE14-252A8C9C867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DJB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2837</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2752</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2745</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3287</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3470</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3392</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4573</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5444</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5507</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5394</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6079</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6439</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7533</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6659</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7097</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8389</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8578</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7112</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8110</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11408</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11799</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10693</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12405</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12648</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14619</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14566</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13054</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14523</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18417</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17229</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20015</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21057</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20852</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25736</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28513</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF8D-49DB-BE14-252A8C9C867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1673701456"/>
+        <c:axId val="1673694384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1673701456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>used</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> space</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673694384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1673694384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>collision number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673701456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1916,6 +3414,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1951,8 +3965,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2223,7 +4278,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -3350,4 +5405,1140 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>126</v>
+      </c>
+      <c r="C2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>308</v>
+      </c>
+      <c r="C3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>296</v>
+      </c>
+      <c r="C4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>361</v>
+      </c>
+      <c r="C5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>518</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>560</v>
+      </c>
+      <c r="C7">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>478</v>
+      </c>
+      <c r="C8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B9">
+        <v>535</v>
+      </c>
+      <c r="C9">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>608</v>
+      </c>
+      <c r="C10">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>678</v>
+      </c>
+      <c r="C11">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>869</v>
+      </c>
+      <c r="C12">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>1064</v>
+      </c>
+      <c r="C13">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>1037</v>
+      </c>
+      <c r="C14">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="C15">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B16">
+        <v>1268</v>
+      </c>
+      <c r="C16">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>1660</v>
+      </c>
+      <c r="C17">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>1518</v>
+      </c>
+      <c r="C18">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>1388</v>
+      </c>
+      <c r="C19">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>1742</v>
+      </c>
+      <c r="C20">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>1868</v>
+      </c>
+      <c r="C21">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>1865</v>
+      </c>
+      <c r="C22">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>2262</v>
+      </c>
+      <c r="C23">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>2147</v>
+      </c>
+      <c r="C24">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>1833</v>
+      </c>
+      <c r="C25">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>1919</v>
+      </c>
+      <c r="C26">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>2471</v>
+      </c>
+      <c r="C27">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>2953</v>
+      </c>
+      <c r="C28">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>3227</v>
+      </c>
+      <c r="C29">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B30">
+        <v>2799</v>
+      </c>
+      <c r="C30">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B31">
+        <v>2942</v>
+      </c>
+      <c r="C31">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>3337</v>
+      </c>
+      <c r="C32">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>2553</v>
+      </c>
+      <c r="C33">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>2973</v>
+      </c>
+      <c r="C34">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>2763</v>
+      </c>
+      <c r="C35">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>3244</v>
+      </c>
+      <c r="C36">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>3667</v>
+      </c>
+      <c r="C37">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>3477</v>
+      </c>
+      <c r="C38">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>3670</v>
+      </c>
+      <c r="C39">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>3802</v>
+      </c>
+      <c r="C40">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>4392</v>
+      </c>
+      <c r="C41">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>4973</v>
+      </c>
+      <c r="C42">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>5107</v>
+      </c>
+      <c r="C43">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>6235</v>
+      </c>
+      <c r="C44">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>6084</v>
+      </c>
+      <c r="C45">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>5396</v>
+      </c>
+      <c r="C46">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>6564</v>
+      </c>
+      <c r="C47">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>6016</v>
+      </c>
+      <c r="C48">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>7777</v>
+      </c>
+      <c r="C49">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>6300</v>
+      </c>
+      <c r="C50">
+        <v>7245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>6610</v>
+      </c>
+      <c r="C51">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>7171</v>
+      </c>
+      <c r="C52">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>8054</v>
+      </c>
+      <c r="C53">
+        <v>7533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>6999</v>
+      </c>
+      <c r="C54">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>7521</v>
+      </c>
+      <c r="C55">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>8244</v>
+      </c>
+      <c r="C56">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B57">
+        <v>9690</v>
+      </c>
+      <c r="C57">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B58">
+        <v>7712</v>
+      </c>
+      <c r="C58">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B59">
+        <v>10185</v>
+      </c>
+      <c r="C59">
+        <v>7112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B60">
+        <v>11888</v>
+      </c>
+      <c r="C60">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>10375</v>
+      </c>
+      <c r="C61">
+        <v>11408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>10345</v>
+      </c>
+      <c r="C62">
+        <v>11799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>12478</v>
+      </c>
+      <c r="C63">
+        <v>10693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>14824</v>
+      </c>
+      <c r="C64">
+        <v>12405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>12942</v>
+      </c>
+      <c r="C65">
+        <v>12648</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>13497</v>
+      </c>
+      <c r="C66">
+        <v>14619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>15015</v>
+      </c>
+      <c r="C67">
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>15479</v>
+      </c>
+      <c r="C68">
+        <v>14566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>18366</v>
+      </c>
+      <c r="C69">
+        <v>13054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>17934</v>
+      </c>
+      <c r="C70">
+        <v>14523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.69</v>
+      </c>
+      <c r="B71">
+        <v>19620</v>
+      </c>
+      <c r="C71">
+        <v>18417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.7</v>
+      </c>
+      <c r="B72">
+        <v>18217</v>
+      </c>
+      <c r="C72">
+        <v>17229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>20252</v>
+      </c>
+      <c r="C73">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>23185</v>
+      </c>
+      <c r="C74">
+        <v>21057</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>27237</v>
+      </c>
+      <c r="C75">
+        <v>20852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>21804</v>
+      </c>
+      <c r="C76">
+        <v>25736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>29199</v>
+      </c>
+      <c r="C77">
+        <v>28513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>31355</v>
+      </c>
+      <c r="C78">
+        <v>27563</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>19572</v>
+      </c>
+      <c r="C79">
+        <v>31287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>25363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.94</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>